--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/FlightItinerary</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/FlightItinerary</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T21:37:28-05:00</t>
+    <t>2023-12-05T13:08:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -333,20 +333,21 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Observation.extension:flight-duration</t>
-  </si>
-  <si>
-    <t>flight-duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/flight-duration}
+    <t>Observation.extension:flight-detail</t>
+  </si>
+  <si>
+    <t>flight-detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/flight-details}
 </t>
   </si>
   <si>
-    <t>Duration of the flight</t>
-  </si>
-  <si>
-    <t>Length of time on the airplane from gate to gate</t>
+    <t>Flight Details</t>
+  </si>
+  <si>
+    <t>Flight Details provides details about a single flight that the ill traveler was a passenger on. 
+It does not cover each leg of an itinerary. Each leg requires a flightDetail</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1274,10 +1275,6 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:string}
-</t>
-  </si>
-  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1351,159 +1348,6 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component:flight</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.id</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.code</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:flight.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport</t>
-  </si>
-  <si>
-    <t>flight/departureAirport</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.id</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.code</t>
-  </si>
-  <si>
-    <t>http://example.org/ValueSet/AirportCodeVS</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/departureAirport.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport</t>
-  </si>
-  <si>
-    <t>flight/arrivalAirport</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.id</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.code</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/arrivalAirport.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber</t>
-  </si>
-  <si>
-    <t>flight/flightNumber</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.id</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.code</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/flightNumber.referenceRange</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber</t>
-  </si>
-  <si>
-    <t>flight/seatNumber</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.id</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.code</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component:flight/seatNumber.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP96"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1822,9 +1666,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.5859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.37109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1847,7 +1691,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.13671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="14.078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2836,10 +2680,10 @@
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>37</v>
@@ -6999,14 +6843,16 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>390</v>
@@ -7030,10 +6876,10 @@
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>37</v>
@@ -7044,10 +6890,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7162,10 +7008,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7282,10 +7128,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7404,10 +7250,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7433,13 +7279,13 @@
         <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>170</v>
@@ -7491,7 +7337,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>48</v>
@@ -7509,7 +7355,7 @@
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>177</v>
@@ -7526,10 +7372,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7552,16 +7398,16 @@
         <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>240</v>
@@ -7613,7 +7459,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7631,7 +7477,7 @@
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>246</v>
@@ -7648,10 +7494,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7677,13 +7523,13 @@
         <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>253</v>
@@ -7735,7 +7581,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7770,10 +7616,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7857,7 +7703,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7892,10 +7738,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7921,10 +7767,10 @@
         <v>38</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>320</v>
@@ -7979,7 +7825,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -8012,5474 +7858,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="D70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y74" s="2"/>
-      <c r="Z74" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP96">
+  <autoFilter ref="A1:AP51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13489,7 +7869,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T13:08:56-05:00</t>
+    <t>2023-12-05T18:52:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
